--- a/examples/convert/mwtab/Saved Directives/mwtab_nmr_binned_conversion_directives.xlsx
+++ b/examples/convert/mwtab/Saved Directives/mwtab_nmr_binned_conversion_directives.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparda\Desktop\Moseley Lab\Code\MESSES\tests\test_convert\testing_files\main_dir\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88582B6B-3FF5-4E1F-B447-25683B4EF541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="1770" windowWidth="20730" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="131">
   <si>
     <t>#tags</t>
   </si>
@@ -268,9 +262,6 @@
     <t>;</t>
   </si>
   <si>
-    <t>" "</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
@@ -280,6 +271,9 @@
     <t>taxonomy_id</t>
   </si>
   <si>
+    <t>mwtab_functions.create_subject_sample_factors(input_json)</t>
+  </si>
+  <si>
     <t>acquisition_time," ",acquisition_time%units</t>
   </si>
   <si>
@@ -352,12 +346,24 @@
     <t>True</t>
   </si>
   <si>
+    <t>*#.headers</t>
+  </si>
+  <si>
+    <t>"Bin range(ppm)"=assignment,entity.id=intensity</t>
+  </si>
+  <si>
     <t>#.table</t>
   </si>
   <si>
+    <t>protocol</t>
+  </si>
+  <si>
     <t>project</t>
   </si>
   <si>
+    <t>#.for_each</t>
+  </si>
+  <si>
     <t>study</t>
   </si>
   <si>
@@ -367,34 +373,25 @@
     <t>section</t>
   </si>
   <si>
-    <t>*#.headers</t>
-  </si>
-  <si>
-    <t>"Bin range(ppm)"=assignment,sample.id=intensity</t>
-  </si>
-  <si>
     <t>measurement</t>
   </si>
   <si>
-    <t>protocol</t>
-  </si>
-  <si>
-    <t>#.for_each</t>
-  </si>
-  <si>
     <t>#.test</t>
   </si>
   <si>
+    <t>type=collection</t>
+  </si>
+  <si>
     <t>type=subject</t>
   </si>
   <si>
+    <t>machine_type=NMR</t>
+  </si>
+  <si>
     <t>*#.sort_by</t>
   </si>
   <si>
-    <t>type=collection</t>
-  </si>
-  <si>
-    <t>type=NMR</t>
+    <t>order</t>
   </si>
   <si>
     <t>#.sort_order</t>
@@ -406,20 +403,17 @@
     <t>matrix</t>
   </si>
   <si>
+    <t>type=sample_prep</t>
+  </si>
+  <si>
     <t>type=treatment</t>
-  </si>
-  <si>
-    <t>type=sample_prep</t>
-  </si>
-  <si>
-    <t>mwtab_functions.create_subject_sample_factors(input_json)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,14 +450,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -510,7 +496,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,27 +528,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,24 +562,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -787,16 +737,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -810,7 +758,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -821,7 +769,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -835,7 +783,7 @@
         <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
         <v>120</v>
@@ -844,7 +792,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -855,16 +803,16 @@
         <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -875,16 +823,16 @@
         <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -895,16 +843,16 @@
         <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -915,16 +863,16 @@
         <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -938,7 +886,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -949,7 +897,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -960,7 +908,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -971,7 +919,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -985,7 +933,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -996,7 +944,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1007,13 +955,16 @@
         <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -1021,13 +972,16 @@
         <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -1035,13 +989,16 @@
         <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="F20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1049,13 +1006,16 @@
         <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="F21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -1063,13 +1023,16 @@
         <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="B23" t="s">
         <v>18</v>
       </c>
@@ -1077,13 +1040,16 @@
         <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="F23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="B24" t="s">
         <v>19</v>
       </c>
@@ -1091,13 +1057,16 @@
         <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="F24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="B25" t="s">
         <v>20</v>
       </c>
@@ -1105,13 +1074,16 @@
         <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="F25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="B26" t="s">
         <v>21</v>
       </c>
@@ -1119,13 +1091,16 @@
         <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="F26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="B27" t="s">
         <v>22</v>
       </c>
@@ -1133,13 +1108,16 @@
         <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="F27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1153,19 +1131,19 @@
         <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F29" t="s">
         <v>107</v>
       </c>
       <c r="G29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J29" t="s">
         <v>120</v>
@@ -1174,7 +1152,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="B30" t="s">
         <v>24</v>
       </c>
@@ -1191,22 +1169,22 @@
         <v>108</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="H30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I30" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K30" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="B31" t="s">
         <v>25</v>
       </c>
@@ -1223,13 +1201,13 @@
         <v>109</v>
       </c>
       <c r="G31" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="H31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J31" t="s">
         <v>129</v>
@@ -1238,12 +1216,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="B32" t="s">
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
@@ -1255,13 +1233,13 @@
         <v>109</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="H32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I32" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J32" t="s">
         <v>129</v>
@@ -1270,7 +1248,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1281,13 +1259,16 @@
         <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="B35" t="s">
         <v>14</v>
       </c>
@@ -1295,13 +1276,16 @@
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="F35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="B36" t="s">
         <v>15</v>
       </c>
@@ -1309,13 +1293,16 @@
         <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="F36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="B37" t="s">
         <v>16</v>
       </c>
@@ -1323,13 +1310,16 @@
         <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="F37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="B38" t="s">
         <v>17</v>
       </c>
@@ -1337,13 +1327,16 @@
         <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="F38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="B39" t="s">
         <v>18</v>
       </c>
@@ -1351,13 +1344,16 @@
         <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="F39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="B40" t="s">
         <v>19</v>
       </c>
@@ -1365,13 +1361,16 @@
         <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="F40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="B41" t="s">
         <v>20</v>
       </c>
@@ -1379,13 +1378,16 @@
         <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="F41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="B42" t="s">
         <v>28</v>
       </c>
@@ -1393,13 +1395,16 @@
         <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="F42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="B43" t="s">
         <v>29</v>
       </c>
@@ -1407,13 +1412,16 @@
         <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="F43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1424,67 +1432,79 @@
         <v>62</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" t="s">
         <v>120</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="B46" t="s">
         <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E46" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="G46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="B47" t="s">
         <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E47" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="G47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="B48" t="s">
         <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E48" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="G48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1495,21 +1515,27 @@
         <v>70</v>
       </c>
       <c r="D50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="B51" t="s">
         <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="E51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -1523,19 +1549,19 @@
         <v>62</v>
       </c>
       <c r="E53" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F53" t="s">
         <v>107</v>
       </c>
       <c r="G53" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H53" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I53" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J53" t="s">
         <v>120</v>
@@ -1544,7 +1570,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="B54" t="s">
         <v>37</v>
       </c>
@@ -1564,19 +1590,19 @@
         <v>64</v>
       </c>
       <c r="H54" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I54" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J54" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K54" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="B55" t="s">
         <v>38</v>
       </c>
@@ -1596,24 +1622,24 @@
         <v>64</v>
       </c>
       <c r="H55" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I55" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J55" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K55" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="B56" t="s">
         <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D56" t="s">
         <v>65</v>
@@ -1628,19 +1654,19 @@
         <v>64</v>
       </c>
       <c r="H56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J56" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K56" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1680,7 @@
         <v>107</v>
       </c>
       <c r="E58" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
         <v>120</v>
@@ -1663,7 +1689,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="B59" t="s">
         <v>41</v>
       </c>
@@ -1674,16 +1700,16 @@
         <v>108</v>
       </c>
       <c r="E59" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G59" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="B60" t="s">
         <v>42</v>
       </c>
@@ -1694,16 +1720,16 @@
         <v>108</v>
       </c>
       <c r="E60" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G60" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="B61" t="s">
         <v>43</v>
       </c>
@@ -1714,16 +1740,16 @@
         <v>108</v>
       </c>
       <c r="E61" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G61" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="B62" t="s">
         <v>44</v>
       </c>
@@ -1734,16 +1760,16 @@
         <v>109</v>
       </c>
       <c r="E62" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G62" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="B63" t="s">
         <v>45</v>
       </c>
@@ -1754,16 +1780,16 @@
         <v>109</v>
       </c>
       <c r="E63" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G63" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="B64" t="s">
         <v>46</v>
       </c>
@@ -1774,16 +1800,16 @@
         <v>109</v>
       </c>
       <c r="E64" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G64" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
         <v>47</v>
       </c>
@@ -1794,16 +1820,16 @@
         <v>108</v>
       </c>
       <c r="E65" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G65" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
         <v>48</v>
       </c>
@@ -1814,16 +1840,16 @@
         <v>108</v>
       </c>
       <c r="E66" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G66" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
         <v>49</v>
       </c>
@@ -1834,16 +1860,16 @@
         <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G67" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
         <v>50</v>
       </c>
@@ -1854,16 +1880,16 @@
         <v>108</v>
       </c>
       <c r="E68" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G68" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
         <v>51</v>
       </c>
@@ -1874,16 +1900,16 @@
         <v>108</v>
       </c>
       <c r="E69" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G69" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
         <v>52</v>
       </c>
@@ -1894,16 +1920,16 @@
         <v>108</v>
       </c>
       <c r="E70" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G70" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
         <v>53</v>
       </c>
@@ -1914,16 +1940,16 @@
         <v>109</v>
       </c>
       <c r="E71" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G71" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
         <v>54</v>
       </c>
@@ -1934,16 +1960,16 @@
         <v>108</v>
       </c>
       <c r="E72" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G72" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="B73" t="s">
         <v>55</v>
       </c>
@@ -1954,16 +1980,16 @@
         <v>108</v>
       </c>
       <c r="E73" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G73" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
         <v>56</v>
       </c>
@@ -1974,16 +2000,16 @@
         <v>108</v>
       </c>
       <c r="E74" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G74" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -1994,22 +2020,25 @@
         <v>102</v>
       </c>
       <c r="D76" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E76" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G76" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="H76" t="s">
+        <v>112</v>
+      </c>
+      <c r="I76" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
         <v>58</v>
       </c>
@@ -2017,22 +2046,25 @@
         <v>103</v>
       </c>
       <c r="D77" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E77" t="s">
+        <v>109</v>
+      </c>
+      <c r="F77" t="s">
         <v>103</v>
       </c>
-      <c r="F77" t="s">
-        <v>126</v>
-      </c>
       <c r="G77" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="H77" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="I77" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2043,13 +2075,16 @@
         <v>62</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E79" t="s">
+        <v>112</v>
+      </c>
+      <c r="F79" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
         <v>59</v>
       </c>
@@ -2057,9 +2092,12 @@
         <v>104</v>
       </c>
       <c r="D80" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
+        <v>119</v>
+      </c>
+      <c r="F80" t="s">
         <v>106</v>
       </c>
     </row>

--- a/examples/convert/mwtab/Saved Directives/mwtab_nmr_binned_conversion_directives.xlsx
+++ b/examples/convert/mwtab/Saved Directives/mwtab_nmr_binned_conversion_directives.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="132">
   <si>
     <t>#tags</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>type=treatment</t>
+  </si>
+  <si>
+    <t>#.values_to_str</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1812,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:10">
       <c r="B65" t="s">
         <v>47</v>
       </c>
@@ -1829,7 +1832,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:10">
       <c r="B66" t="s">
         <v>48</v>
       </c>
@@ -1849,7 +1852,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:10">
       <c r="B67" t="s">
         <v>49</v>
       </c>
@@ -1869,7 +1872,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:10">
       <c r="B68" t="s">
         <v>50</v>
       </c>
@@ -1889,7 +1892,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:10">
       <c r="B69" t="s">
         <v>51</v>
       </c>
@@ -1909,7 +1912,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:10">
       <c r="B70" t="s">
         <v>52</v>
       </c>
@@ -1929,7 +1932,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:10">
       <c r="B71" t="s">
         <v>53</v>
       </c>
@@ -1949,7 +1952,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:10">
       <c r="B72" t="s">
         <v>54</v>
       </c>
@@ -1969,7 +1972,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:10">
       <c r="B73" t="s">
         <v>55</v>
       </c>
@@ -1989,7 +1992,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:10">
       <c r="B74" t="s">
         <v>56</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -2037,8 +2040,11 @@
       <c r="I76" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="B77" t="s">
         <v>58</v>
       </c>
@@ -2063,8 +2069,11 @@
       <c r="I77" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2084,7 +2093,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:10">
       <c r="B80" t="s">
         <v>59</v>
       </c>

--- a/examples/convert/mwtab/Saved Directives/mwtab_nmr_binned_conversion_directives.xlsx
+++ b/examples/convert/mwtab/Saved Directives/mwtab_nmr_binned_conversion_directives.xlsx
@@ -19,123 +19,123 @@
     <t>#tags</t>
   </si>
   <si>
+    <t>#METABOLOMICS WORKBENCH.id</t>
+  </si>
+  <si>
+    <t>STUDY_ID</t>
+  </si>
+  <si>
+    <t>ANALYSIS_ID</t>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>CREATED_ON</t>
+  </si>
+  <si>
+    <t>#PROJECT.id</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>FIRST_NAME</t>
+  </si>
+  <si>
+    <t>INSTITUTE</t>
+  </si>
+  <si>
+    <t>LAST_NAME</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>PROJECT_SUMMARY</t>
+  </si>
+  <si>
+    <t>PROJECT_TITLE</t>
+  </si>
+  <si>
+    <t>#STUDY.id</t>
+  </si>
+  <si>
+    <t>STUDY_SUMMARY</t>
+  </si>
+  <si>
+    <t>STUDY_TITLE</t>
+  </si>
+  <si>
+    <t>#SUBJECT.id</t>
+  </si>
+  <si>
+    <t>SUBJECT_SPECIES</t>
+  </si>
+  <si>
+    <t>SUBJECT_TYPE</t>
+  </si>
+  <si>
+    <t>TAXONOMY_ID</t>
+  </si>
+  <si>
+    <t>#SUBJECT_SAMPLE_FACTORS.id</t>
+  </si>
+  <si>
+    <t>no_id_needed</t>
+  </si>
+  <si>
+    <t>#COLLECTION.id</t>
+  </si>
+  <si>
+    <t>COLLECTION_PROTOCOL_FILENAME</t>
+  </si>
+  <si>
+    <t>COLLECTION_PROTOCOL_ID</t>
+  </si>
+  <si>
+    <t>COLLECTION_SUMMARY</t>
+  </si>
+  <si>
+    <t>SAMPLE_TYPE</t>
+  </si>
+  <si>
+    <t>#TREATMENT.id</t>
+  </si>
+  <si>
+    <t>TREATMENT_PROTOCOL_FILENAME</t>
+  </si>
+  <si>
+    <t>TREATMENT_PROTOCOL_ID</t>
+  </si>
+  <si>
+    <t>TREATMENT_SUMMARY</t>
+  </si>
+  <si>
+    <t>#SAMPLEPREP.id</t>
+  </si>
+  <si>
+    <t>SAMPLEPREP_PROTOCOL_FILENAME</t>
+  </si>
+  <si>
+    <t>SAMPLEPREP_PROTOCOL_ID</t>
+  </si>
+  <si>
+    <t>SAMPLEPREP_SUMMARY</t>
+  </si>
+  <si>
     <t>#ANALYSIS.id</t>
   </si>
   <si>
     <t>ANALYSIS_TYPE</t>
   </si>
   <si>
-    <t>#COLLECTION.id</t>
-  </si>
-  <si>
-    <t>COLLECTION_PROTOCOL_FILENAME</t>
-  </si>
-  <si>
-    <t>COLLECTION_PROTOCOL_ID</t>
-  </si>
-  <si>
-    <t>COLLECTION_SUMMARY</t>
-  </si>
-  <si>
-    <t>SAMPLE_TYPE</t>
-  </si>
-  <si>
-    <t>#METABOLOMICS WORKBENCH.id</t>
-  </si>
-  <si>
-    <t>ANALYSIS_ID</t>
-  </si>
-  <si>
-    <t>STUDY_ID</t>
-  </si>
-  <si>
-    <t>VERSION</t>
-  </si>
-  <si>
-    <t>CREATED_ON</t>
-  </si>
-  <si>
-    <t>#PROJECT.id</t>
-  </si>
-  <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
-    <t>DEPARTMENT</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>FIRST_NAME</t>
-  </si>
-  <si>
-    <t>INSTITUTE</t>
-  </si>
-  <si>
-    <t>LAST_NAME</t>
-  </si>
-  <si>
-    <t>PHONE</t>
-  </si>
-  <si>
-    <t>PROJECT_SUMMARY</t>
-  </si>
-  <si>
-    <t>PROJECT_TITLE</t>
-  </si>
-  <si>
-    <t>#SAMPLEPREP.id</t>
-  </si>
-  <si>
-    <t>SAMPLEPREP_PROTOCOL_FILENAME</t>
-  </si>
-  <si>
-    <t>SAMPLEPREP_PROTOCOL_ID</t>
-  </si>
-  <si>
-    <t>SAMPLEPREP_SUMMARY</t>
-  </si>
-  <si>
-    <t>#STUDY.id</t>
-  </si>
-  <si>
-    <t>STUDY_SUMMARY</t>
-  </si>
-  <si>
-    <t>STUDY_TITLE</t>
-  </si>
-  <si>
-    <t>#SUBJECT.id</t>
-  </si>
-  <si>
-    <t>SUBJECT_SPECIES</t>
-  </si>
-  <si>
-    <t>SUBJECT_TYPE</t>
-  </si>
-  <si>
-    <t>TAXONOMY_ID</t>
-  </si>
-  <si>
-    <t>#SUBJECT_SAMPLE_FACTORS.id</t>
-  </si>
-  <si>
-    <t>no_id_needed</t>
-  </si>
-  <si>
-    <t>#TREATMENT.id</t>
-  </si>
-  <si>
-    <t>TREATMENT_PROTOCOL_FILENAME</t>
-  </si>
-  <si>
-    <t>TREATMENT_PROTOCOL_ID</t>
-  </si>
-  <si>
-    <t>TREATMENT_SUMMARY</t>
-  </si>
-  <si>
     <t>#NM.id</t>
   </si>
   <si>
@@ -190,90 +190,90 @@
     <t>#NMR_BINNED_DATA.id</t>
   </si>
   <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>Data</t>
   </si>
   <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>#.override</t>
   </si>
   <si>
+    <t>ST000000</t>
+  </si>
+  <si>
+    <t>AN000000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>#.code</t>
+  </si>
+  <si>
+    <t>str(datetime.datetime.now().date())</t>
+  </si>
+  <si>
+    <t>*#.fields</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>PI_email</t>
+  </si>
+  <si>
+    <t>PI_first_name</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>PI_last_name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>species_type</t>
+  </si>
+  <si>
+    <t>taxonomy_id</t>
+  </si>
+  <si>
+    <t>mwtab_functions.create_subject_sample_factors(input_json)</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>sample_type</t>
+  </si>
+  <si>
+    <t>#.delimiter</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
     <t>NM</t>
   </si>
   <si>
-    <t>*#.fields</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>sample_type</t>
-  </si>
-  <si>
-    <t>AN000000</t>
-  </si>
-  <si>
-    <t>ST000000</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>#.code</t>
-  </si>
-  <si>
-    <t>str(datetime.datetime.now().date())</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>PI_email</t>
-  </si>
-  <si>
-    <t>PI_first_name</t>
-  </si>
-  <si>
-    <t>institution</t>
-  </si>
-  <si>
-    <t>PI_last_name</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>#.delimiter</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t>species_type</t>
-  </si>
-  <si>
-    <t>taxonomy_id</t>
-  </si>
-  <si>
-    <t>mwtab_functions.create_subject_sample_factors(input_json)</t>
-  </si>
-  <si>
     <t>acquisition_time," ",acquisition_time%units</t>
   </si>
   <si>
@@ -322,15 +322,15 @@
     <t>water_suppression</t>
   </si>
   <si>
+    <t>intensity%type</t>
+  </si>
+  <si>
     <t>#.collate</t>
   </si>
   <si>
     <t>assignment</t>
   </si>
   <si>
-    <t>intensity%type</t>
-  </si>
-  <si>
     <t>#.value_type</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>#.required</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>False</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>*#.headers</t>
   </si>
   <si>
@@ -355,36 +355,36 @@
     <t>#.table</t>
   </si>
   <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
     <t>protocol</t>
   </si>
   <si>
-    <t>project</t>
-  </si>
-  <si>
     <t>#.for_each</t>
   </si>
   <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>entity</t>
-  </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
     <t>measurement</t>
   </si>
   <si>
     <t>#.test</t>
   </si>
   <si>
+    <t>type=subject</t>
+  </si>
+  <si>
     <t>type=collection</t>
   </si>
   <si>
-    <t>type=subject</t>
-  </si>
-  <si>
     <t>machine_type=NMR</t>
   </si>
   <si>
@@ -403,10 +403,10 @@
     <t>matrix</t>
   </si>
   <si>
+    <t>type=treatment</t>
+  </si>
+  <si>
     <t>type=sample_prep</t>
-  </si>
-  <si>
-    <t>type=treatment</t>
   </si>
   <si>
     <t>#.values_to_str</t>
@@ -747,7 +747,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +761,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -772,244 +772,255 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
         <v>113</v>
       </c>
-      <c r="F7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" t="s">
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C21" t="s">
         <v>67</v>
       </c>
-      <c r="D11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>74</v>
-      </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
         <v>114</v>
@@ -1018,15 +1029,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:7">
       <c r="B22" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
         <v>114</v>
@@ -1035,15 +1046,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:7">
       <c r="B23" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
         <v>114</v>
@@ -1052,15 +1063,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:7">
       <c r="B24" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s">
         <v>114</v>
@@ -1069,15 +1080,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:7">
       <c r="B25" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s">
         <v>114</v>
@@ -1086,15 +1097,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:7">
       <c r="B26" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
         <v>114</v>
@@ -1103,15 +1114,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:7">
       <c r="B27" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" t="s">
         <v>114</v>
@@ -1120,311 +1131,258 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
+    <row r="28" spans="1:7">
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
         <v>0</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
         <v>23</v>
       </c>
-      <c r="C29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" t="s">
-        <v>115</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
         <v>107</v>
       </c>
-      <c r="G29" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" t="s">
-        <v>126</v>
-      </c>
-      <c r="I29" t="s">
-        <v>112</v>
-      </c>
-      <c r="J29" t="s">
-        <v>120</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="E36" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="B30" t="s">
+    <row r="37" spans="1:11">
+      <c r="B37" t="s">
         <v>24</v>
       </c>
-      <c r="C30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H30" t="s">
-        <v>127</v>
-      </c>
-      <c r="I30" t="s">
-        <v>113</v>
-      </c>
-      <c r="J30" t="s">
-        <v>129</v>
-      </c>
-      <c r="K30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" t="s">
-        <v>125</v>
-      </c>
-      <c r="H31" t="s">
-        <v>127</v>
-      </c>
-      <c r="I31" t="s">
-        <v>113</v>
-      </c>
-      <c r="J31" t="s">
-        <v>129</v>
-      </c>
-      <c r="K31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" t="s">
-        <v>125</v>
-      </c>
-      <c r="H32" t="s">
-        <v>127</v>
-      </c>
-      <c r="I32" t="s">
-        <v>113</v>
-      </c>
-      <c r="J32" t="s">
-        <v>129</v>
-      </c>
-      <c r="K32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" t="s">
-        <v>112</v>
-      </c>
-      <c r="F34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" t="s">
-        <v>116</v>
-      </c>
-      <c r="F36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
         <v>116</v>
       </c>
-      <c r="F37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="B38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>120</v>
+      </c>
+      <c r="G39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="B40" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
         <v>109</v>
       </c>
       <c r="E40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>122</v>
+      </c>
+      <c r="G40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="B41" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F41" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>122</v>
+      </c>
+      <c r="G41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="B42" t="s">
         <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>122</v>
+      </c>
+      <c r="G42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="B43" t="s">
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>122</v>
+      </c>
+      <c r="G43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1432,62 +1390,98 @@
         <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" t="s">
         <v>107</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" t="s">
+        <v>126</v>
+      </c>
+      <c r="I45" t="s">
         <v>112</v>
       </c>
-      <c r="F45" t="s">
+      <c r="J45" t="s">
         <v>120</v>
       </c>
-      <c r="G45" t="s">
+      <c r="K45" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:11">
       <c r="B46" t="s">
         <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" t="s">
         <v>109</v>
       </c>
-      <c r="E46" t="s">
-        <v>117</v>
-      </c>
-      <c r="F46" t="s">
-        <v>122</v>
-      </c>
       <c r="G46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>81</v>
+      </c>
+      <c r="H46" t="s">
+        <v>127</v>
+      </c>
+      <c r="I46" t="s">
+        <v>117</v>
+      </c>
+      <c r="J46" t="s">
+        <v>129</v>
+      </c>
+      <c r="K46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="B47" t="s">
         <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F47" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>81</v>
+      </c>
+      <c r="H47" t="s">
+        <v>127</v>
+      </c>
+      <c r="I47" t="s">
+        <v>117</v>
+      </c>
+      <c r="J47" t="s">
+        <v>129</v>
+      </c>
+      <c r="K47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="B48" t="s">
         <v>33</v>
       </c>
@@ -1495,15 +1489,27 @@
         <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="E48" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F48" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G48" t="s">
+        <v>81</v>
+      </c>
+      <c r="H48" t="s">
+        <v>127</v>
+      </c>
+      <c r="I48" t="s">
+        <v>117</v>
+      </c>
+      <c r="J48" t="s">
+        <v>129</v>
+      </c>
+      <c r="K48" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1515,12 +1521,30 @@
         <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" t="s">
         <v>107</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
+        <v>124</v>
+      </c>
+      <c r="H50" t="s">
+        <v>126</v>
+      </c>
+      <c r="I50" t="s">
+        <v>112</v>
+      </c>
+      <c r="J50" t="s">
+        <v>120</v>
+      </c>
+      <c r="K50" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1529,112 +1553,109 @@
         <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" t="s">
         <v>109</v>
       </c>
-      <c r="E51" t="s">
-        <v>118</v>
+      <c r="G51" t="s">
+        <v>125</v>
+      </c>
+      <c r="H51" t="s">
+        <v>127</v>
+      </c>
+      <c r="I51" t="s">
+        <v>117</v>
+      </c>
+      <c r="J51" t="s">
+        <v>130</v>
+      </c>
+      <c r="K51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" t="s">
+        <v>127</v>
+      </c>
+      <c r="I52" t="s">
+        <v>117</v>
+      </c>
+      <c r="J52" t="s">
+        <v>130</v>
+      </c>
+      <c r="K52" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" t="s">
+        <v>125</v>
+      </c>
+      <c r="H53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" t="s">
+        <v>117</v>
+      </c>
+      <c r="J53" t="s">
+        <v>130</v>
+      </c>
+      <c r="K53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
         <v>0</v>
       </c>
-      <c r="B53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" t="s">
-        <v>62</v>
-      </c>
-      <c r="E53" t="s">
-        <v>115</v>
-      </c>
-      <c r="F53" t="s">
-        <v>107</v>
-      </c>
-      <c r="G53" t="s">
-        <v>124</v>
-      </c>
-      <c r="H53" t="s">
-        <v>126</v>
-      </c>
-      <c r="I53" t="s">
-        <v>112</v>
-      </c>
-      <c r="J53" t="s">
-        <v>120</v>
-      </c>
-      <c r="K53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="B54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
-      </c>
-      <c r="G54" t="s">
-        <v>64</v>
-      </c>
-      <c r="H54" t="s">
-        <v>127</v>
-      </c>
-      <c r="I54" t="s">
-        <v>113</v>
-      </c>
-      <c r="J54" t="s">
-        <v>130</v>
-      </c>
-      <c r="K54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
       <c r="B55" t="s">
         <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
-      </c>
-      <c r="E55" t="s">
-        <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>109</v>
-      </c>
-      <c r="G55" t="s">
-        <v>64</v>
-      </c>
-      <c r="H55" t="s">
-        <v>127</v>
-      </c>
-      <c r="I55" t="s">
-        <v>113</v>
-      </c>
-      <c r="J55" t="s">
-        <v>130</v>
-      </c>
-      <c r="K55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1642,30 +1663,9 @@
         <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
-      </c>
-      <c r="E56" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>109</v>
-      </c>
-      <c r="G56" t="s">
-        <v>64</v>
-      </c>
-      <c r="H56" t="s">
-        <v>127</v>
-      </c>
-      <c r="I56" t="s">
-        <v>113</v>
-      </c>
-      <c r="J56" t="s">
-        <v>130</v>
-      </c>
-      <c r="K56" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
         <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D58" t="s">
         <v>107</v>
@@ -1700,10 +1700,10 @@
         <v>86</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F59" t="s">
         <v>123</v>
@@ -1720,10 +1720,10 @@
         <v>87</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
         <v>123</v>
@@ -1740,10 +1740,10 @@
         <v>88</v>
       </c>
       <c r="D61" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
         <v>123</v>
@@ -1760,10 +1760,10 @@
         <v>89</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
         <v>123</v>
@@ -1780,10 +1780,10 @@
         <v>90</v>
       </c>
       <c r="D63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F63" t="s">
         <v>123</v>
@@ -1800,10 +1800,10 @@
         <v>91</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F64" t="s">
         <v>123</v>
@@ -1820,10 +1820,10 @@
         <v>92</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E65" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F65" t="s">
         <v>123</v>
@@ -1840,10 +1840,10 @@
         <v>93</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E66" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F66" t="s">
         <v>123</v>
@@ -1860,10 +1860,10 @@
         <v>94</v>
       </c>
       <c r="D67" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E67" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F67" t="s">
         <v>123</v>
@@ -1880,10 +1880,10 @@
         <v>95</v>
       </c>
       <c r="D68" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E68" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F68" t="s">
         <v>123</v>
@@ -1900,10 +1900,10 @@
         <v>96</v>
       </c>
       <c r="D69" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E69" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F69" t="s">
         <v>123</v>
@@ -1920,10 +1920,10 @@
         <v>97</v>
       </c>
       <c r="D70" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E70" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F70" t="s">
         <v>123</v>
@@ -1940,10 +1940,10 @@
         <v>98</v>
       </c>
       <c r="D71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E71" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F71" t="s">
         <v>123</v>
@@ -1960,10 +1960,10 @@
         <v>99</v>
       </c>
       <c r="D72" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E72" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F72" t="s">
         <v>123</v>
@@ -1980,10 +1980,10 @@
         <v>100</v>
       </c>
       <c r="D73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E73" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F73" t="s">
         <v>123</v>
@@ -2000,10 +2000,10 @@
         <v>101</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E74" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F74" t="s">
         <v>123</v>
@@ -2020,28 +2020,16 @@
         <v>57</v>
       </c>
       <c r="C76" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="D76" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E76" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F76" t="s">
-        <v>124</v>
-      </c>
-      <c r="G76" t="s">
-        <v>126</v>
-      </c>
-      <c r="H76" t="s">
-        <v>112</v>
-      </c>
-      <c r="I76" t="s">
         <v>105</v>
-      </c>
-      <c r="J76" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2049,28 +2037,16 @@
         <v>58</v>
       </c>
       <c r="C77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D77" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F77" t="s">
-        <v>103</v>
-      </c>
-      <c r="G77" t="s">
-        <v>127</v>
-      </c>
-      <c r="H77" t="s">
-        <v>119</v>
-      </c>
-      <c r="I77" t="s">
-        <v>128</v>
-      </c>
-      <c r="J77" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2081,16 +2057,28 @@
         <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D79" t="s">
+        <v>110</v>
+      </c>
+      <c r="E79" t="s">
         <v>107</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
+        <v>124</v>
+      </c>
+      <c r="G79" t="s">
+        <v>126</v>
+      </c>
+      <c r="H79" t="s">
         <v>112</v>
       </c>
-      <c r="F79" t="s">
+      <c r="I79" t="s">
         <v>105</v>
+      </c>
+      <c r="J79" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2101,13 +2089,25 @@
         <v>104</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E80" t="s">
+        <v>108</v>
+      </c>
+      <c r="F80" t="s">
+        <v>104</v>
+      </c>
+      <c r="G80" t="s">
+        <v>127</v>
+      </c>
+      <c r="H80" t="s">
         <v>119</v>
       </c>
-      <c r="F80" t="s">
-        <v>106</v>
+      <c r="I80" t="s">
+        <v>128</v>
+      </c>
+      <c r="J80" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
